--- a/results_BSD_10_10.xlsx
+++ b/results_BSD_10_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD3CCFA-46B6-C343-BB07-6D16283EEB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3C8FA-6F72-EE49-9EBA-F4EB238D21AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="860" windowWidth="22480" windowHeight="13440" xr2:uid="{DCF972A8-F625-F14C-9F98-97D2BB9C3957}"/>
   </bookViews>
@@ -14941,7 +14941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D9F61-A412-744D-8F23-E4AC4AB96654}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>

--- a/results_BSD_10_10.xlsx
+++ b/results_BSD_10_10.xlsx
@@ -1,47 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\route-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A8A21-250D-3647-93EE-365BB3405A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD" sheetId="1" r:id="rId1"/>
     <sheet name="ES_dist" sheetId="4" r:id="rId2"/>
     <sheet name="ES_probs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" localSheetId="1">ES_dist!$K$91</definedName>
-    <definedName name="_xlchart.v1.0" localSheetId="2">ES_probs!$K$91</definedName>
-    <definedName name="_xlchart.v1.0">BSD!$K$91</definedName>
-    <definedName name="_xlchart.v1.1" localSheetId="1">ES_dist!$K$92</definedName>
-    <definedName name="_xlchart.v1.1" localSheetId="2">ES_probs!$K$92</definedName>
-    <definedName name="_xlchart.v1.1">BSD!$K$92</definedName>
-    <definedName name="_xlchart.v1.2" localSheetId="1">ES_dist!$K$93</definedName>
-    <definedName name="_xlchart.v1.2" localSheetId="2">ES_probs!$K$93</definedName>
-    <definedName name="_xlchart.v1.2">BSD!$K$93</definedName>
-    <definedName name="_xlchart.v1.3" localSheetId="1">ES_dist!$K$94</definedName>
-    <definedName name="_xlchart.v1.3" localSheetId="2">ES_probs!$K$94</definedName>
-    <definedName name="_xlchart.v1.3">BSD!$K$94</definedName>
-    <definedName name="_xlchart.v1.4" localSheetId="1">ES_dist!$L$91:$S$91</definedName>
-    <definedName name="_xlchart.v1.4" localSheetId="2">ES_probs!$L$91:$S$91</definedName>
-    <definedName name="_xlchart.v1.4">BSD!$L$91:$S$91</definedName>
-    <definedName name="_xlchart.v1.5" localSheetId="1">ES_dist!$L$92:$S$92</definedName>
-    <definedName name="_xlchart.v1.5" localSheetId="2">ES_probs!$L$92:$S$92</definedName>
-    <definedName name="_xlchart.v1.5">BSD!$L$92:$S$92</definedName>
-    <definedName name="_xlchart.v1.6" localSheetId="1">ES_dist!$L$93:$S$93</definedName>
-    <definedName name="_xlchart.v1.6" localSheetId="2">ES_probs!$L$93:$S$93</definedName>
-    <definedName name="_xlchart.v1.6">BSD!$L$93:$S$93</definedName>
-    <definedName name="_xlchart.v1.7" localSheetId="1">ES_dist!$L$94:$S$94</definedName>
-    <definedName name="_xlchart.v1.7" localSheetId="2">ES_probs!$L$94:$S$94</definedName>
-    <definedName name="_xlchart.v1.7">BSD!$L$94:$S$94</definedName>
-  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -156,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -259,9 +234,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +265,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -383,7 +358,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -423,7 +398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1517,7 +1491,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1552,7 +1525,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1576,7 +1549,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2105,7 +2078,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2152,7 +2125,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3246,7 +3218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3281,7 +3252,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3328,7 +3299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4422,7 +4392,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4457,7 +4426,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4504,7 +4473,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5598,7 +5566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5633,7 +5600,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5680,7 +5647,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6774,7 +6740,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6809,7 +6774,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6856,7 +6821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7590,7 +7554,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7625,7 +7588,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7672,7 +7635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8406,7 +8368,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8441,7 +8402,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8488,7 +8449,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9222,7 +9182,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9257,7 +9216,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10045,7 +10004,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10080,7 +10038,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10127,7 +10085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10607,7 +10564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10642,7 +10598,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -10682,7 +10638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11776,7 +11731,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11811,7 +11765,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11858,7 +11812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12338,7 +12291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12373,7 +12325,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -12413,7 +12365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13507,7 +13458,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13542,7 +13492,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -13582,7 +13532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14676,7 +14625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14711,7 +14659,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -14735,7 +14683,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -15878,7 +15826,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -15918,7 +15866,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17012,7 +16959,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17047,7 +16993,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -17854,7 +17800,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -17894,7 +17840,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18628,7 +18573,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18663,7 +18607,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -19470,7 +19414,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -19510,7 +19454,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20244,7 +20187,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20279,7 +20221,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -20832,7 +20774,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -20872,7 +20814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21966,7 +21907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22001,7 +21941,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -22041,7 +21981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22521,7 +22460,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22556,7 +22494,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -22596,7 +22534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23690,7 +23627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23725,7 +23661,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -23749,7 +23685,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -24532,7 +24468,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -24556,7 +24492,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -25339,7 +25275,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -25363,7 +25299,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -26146,7 +26082,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -26170,7 +26106,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -26953,7 +26889,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -26977,7 +26913,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -27520,7 +27456,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27544,13 +27486,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>837720</xdr:colOff>
+      <xdr:colOff>825020</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 6"/>
+        <xdr:cNvPr id="3" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27580,7 +27528,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 8"/>
+        <xdr:cNvPr id="4" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27604,13 +27558,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 9"/>
+        <xdr:cNvPr id="5" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27634,13 +27594,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 10"/>
+        <xdr:cNvPr id="6" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27664,13 +27630,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 11"/>
+        <xdr:cNvPr id="7" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27694,13 +27666,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 12"/>
+        <xdr:cNvPr id="8" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27724,13 +27702,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 13"/>
+        <xdr:cNvPr id="9" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27754,13 +27738,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 14"/>
+        <xdr:cNvPr id="10" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27784,13 +27774,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>837360</xdr:colOff>
+      <xdr:colOff>824660</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 15"/>
+        <xdr:cNvPr id="11" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -27825,7 +27821,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -27857,7 +27859,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 6"/>
+        <xdr:cNvPr id="3" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -27889,7 +27897,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 8"/>
+        <xdr:cNvPr id="4" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -27921,7 +27935,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 9"/>
+        <xdr:cNvPr id="5" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -27953,7 +27973,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 10"/>
+        <xdr:cNvPr id="6" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -27985,7 +28011,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 11"/>
+        <xdr:cNvPr id="7" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -28017,7 +28049,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 12"/>
+        <xdr:cNvPr id="8" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -28049,7 +28087,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 13"/>
+        <xdr:cNvPr id="9" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -28081,7 +28125,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 14"/>
+        <xdr:cNvPr id="10" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -28113,7 +28163,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 15"/>
+        <xdr:cNvPr id="11" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -28150,7 +28206,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 5"/>
+        <xdr:cNvPr id="10" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28180,7 +28242,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 6"/>
+        <xdr:cNvPr id="11" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28210,7 +28278,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 8"/>
+        <xdr:cNvPr id="12" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28240,7 +28314,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 9"/>
+        <xdr:cNvPr id="13" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28270,7 +28350,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 10"/>
+        <xdr:cNvPr id="14" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28300,7 +28386,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 11"/>
+        <xdr:cNvPr id="15" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28330,7 +28422,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 12"/>
+        <xdr:cNvPr id="16" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28360,7 +28458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 13"/>
+        <xdr:cNvPr id="17" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28390,7 +28494,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 14"/>
+        <xdr:cNvPr id="18" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28420,7 +28530,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 15"/>
+        <xdr:cNvPr id="19" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28700,1962 +28816,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="10" width="10.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="2" customWidth="1"/>
-    <col min="12" max="1025" width="10.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>30</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>35</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>40</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>15</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>20</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>30</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>35</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.108</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.99</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.98</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.214</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.43</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.54600000000000004</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.67800000000000005</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.79800000000000004</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.44</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.92</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.95</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.98</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.98</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.99</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.48</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.7</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.9</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.96</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.76600000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.9</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.96</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.29599999999999999</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.748</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.87</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.03</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.442</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>0.182</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>0.32200000000000001</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>0.42</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>0.496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.85399999999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.32800000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>0.46200000000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>0.79</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.45</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.81</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.95</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.04</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.186</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.39800000000000002</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>0.84</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>0.92</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.124</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.61599999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.95</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.436</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>0.65400000000000003</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>0.79</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>0.86</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>0.874</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>15</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>25</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>30</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>35</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>40</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4">
+      <c r="K26" s="2"/>
+      <c r="L26" s="3">
         <v>5</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>10</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>15</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>20</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>25</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>30</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <v>35</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.112</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.7</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0.99</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.49</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>0.72199999999999998</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.17</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.52</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.996</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>0.996</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0.248</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>0.876</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>0.97</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.95</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>0.19</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>0.41</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>0.49</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>0.71</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>0.83</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>0.94</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>1</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.122</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.79</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.99</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.998</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.996</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>0.214</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>0.108</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>0.21</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>0.49</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.86</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>0.98</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.154</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0.35</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>0.78</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.122</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>0.63200000000000001</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>0.9</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>0.126</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0.624</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.95</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>0.214</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>0.93</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>15</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>25</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>30</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>35</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>40</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="4">
+      <c r="K50" s="2"/>
+      <c r="L50" s="3">
         <v>5</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <v>10</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>15</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>20</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <v>25</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <v>30</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <v>35</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>0.44</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="1">
         <v>0.92</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>0.30199999999999999</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.96</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>0.122</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0.41199999999999998</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>0.85</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1">
         <v>1</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="1">
         <v>1</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>0.38600000000000001</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>0.79</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>1</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>0.214</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0.502</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>1</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="1">
         <v>1</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>0.44</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>1</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>1</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <v>1</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>0.47599999999999998</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>0.6</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="1">
         <v>1</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="1">
         <v>1</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="1">
         <v>1</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E69" s="3" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3">
         <v>5</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>15</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>20</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>25</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>30</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>35</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>40</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="4">
+      <c r="K70" s="2"/>
+      <c r="L70" s="3">
         <v>5</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="3">
         <v>10</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <v>15</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="3">
         <v>20</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <v>25</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="3">
         <v>30</v>
       </c>
-      <c r="R70" s="4">
+      <c r="R70" s="3">
         <v>35</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0.996</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>0.996</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>0.27</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="R71" s="2">
+      <c r="R71" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="1">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0.996</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>0.996</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>0.31</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="1">
         <v>0.996</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="1">
         <v>0.996</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>0.61599999999999999</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>0.878</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>0.996</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>0.996</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>1</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>0.37</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="1">
         <v>0.78</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R73" s="2">
+      <c r="R73" s="1">
         <v>1</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>0.64</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>0.996</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>0.996</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>0.18</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <v>0.41</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P74" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q74" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R74" s="2">
+      <c r="R74" s="1">
         <v>1</v>
       </c>
-      <c r="S74" s="2">
+      <c r="S74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>0.998</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>0.996</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>1</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>0.218</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R75" s="2">
+      <c r="R75" s="1">
         <v>1</v>
       </c>
-      <c r="S75" s="2">
+      <c r="S75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D90" s="3" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="3" t="s">
+      <c r="N90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3">
         <v>5</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>10</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>15</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>25</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>30</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>35</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>40</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="4">
+      <c r="K91" s="2"/>
+      <c r="L91" s="3">
         <v>5</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="3">
         <v>10</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="3">
         <v>15</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="3">
         <v>20</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <v>25</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <v>30</v>
       </c>
-      <c r="R91" s="4">
+      <c r="R91" s="3">
         <v>35</v>
       </c>
-      <c r="S91" s="4">
+      <c r="S91" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>0.17</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>0.374</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="1">
         <v>0.7</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="1">
         <v>0.85</v>
       </c>
-      <c r="K92" s="5" t="s">
+      <c r="K92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="1">
         <v>0.188</v>
       </c>
-      <c r="O92" s="2">
+      <c r="O92" s="1">
         <v>0.38</v>
       </c>
-      <c r="P92" s="2">
+      <c r="P92" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="Q92" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="R92" s="2">
+      <c r="R92" s="1">
         <v>0.8</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S92" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>0.44</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="1">
         <v>0.92</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="1">
         <v>0.248</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="P93" s="2">
+      <c r="P93" s="1">
         <v>0.876</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q93" s="1">
         <v>0.97</v>
       </c>
-      <c r="R93" s="2">
+      <c r="R93" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S93" s="1">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>0.17</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>0.52</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="1">
         <v>0.996</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="1">
         <v>0.996</v>
       </c>
-      <c r="R94" s="2">
+      <c r="R94" s="1">
         <v>1</v>
       </c>
-      <c r="S94" s="2">
+      <c r="S94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -30671,1982 +30787,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="10" width="10.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="2" customWidth="1"/>
-    <col min="12" max="1025" width="10.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>30</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>35</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>40</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>15</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>20</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>30</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>35</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.626</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.85</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.746</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.998</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.124</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.216</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.95</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.98</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.98</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.99</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.48</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.7</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.9</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.96</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.84</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.13</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.35</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.216</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.77800000000000002</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.32800000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>0.46200000000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>0.79</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.122</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.754</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.72399999999999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I14" s="8"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I15" s="8"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I15" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H22" s="8"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>15</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>25</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>30</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>35</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>40</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4">
+      <c r="K26" s="2"/>
+      <c r="L26" s="3">
         <v>5</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>10</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>15</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>20</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>25</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>30</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <v>35</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.47799999999999998</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.63200000000000001</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.74</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.81</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>0.86</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>0.31</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0.44</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>0.754</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.35</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.626</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.89</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>0.996</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.996</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.21</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>0.5</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>0.76</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.95</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>0.19</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>0.41</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>0.49</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>0.71</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>0.83</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>0.94</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>1</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.69399999999999995</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.79</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>0.02</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>0.03</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>0.08</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.114</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.316</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>0.46200000000000002</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.57399999999999995</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.72199999999999998</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.154</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0.35</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>0.78</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>0.05</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.122</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.24</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.43</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.50600000000000001</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>0.69399999999999995</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.76</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>0.01</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I41" s="8"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I41" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>15</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>25</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>30</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>35</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>40</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="4">
+      <c r="K50" s="2"/>
+      <c r="L50" s="3">
         <v>5</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <v>10</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>15</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>20</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <v>25</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <v>30</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <v>35</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.998</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>0.124</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>0.216</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>0.252</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>0.63</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.88</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0.99</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>0.51800000000000002</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>0.70199999999999996</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1">
         <v>0.748</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>0.33</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>0.996</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>1</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>0.60399999999999998</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>0.752</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>0.77800000000000002</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="1">
         <v>0.91</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="1">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>0.39</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>0.746</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>0.998</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>0.83799999999999997</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <v>0.96</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0.77</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>0.998</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>0.434</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="1">
         <v>0.874</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="1">
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E69" s="3" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3">
         <v>5</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>15</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>20</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>25</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>30</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>35</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>40</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="4">
+      <c r="K70" s="2"/>
+      <c r="L70" s="3">
         <v>5</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="3">
         <v>10</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <v>15</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="3">
         <v>20</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <v>25</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="3">
         <v>30</v>
       </c>
-      <c r="R70" s="4">
+      <c r="R70" s="3">
         <v>35</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>0.378</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>0.998</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>0.996</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>0.15</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="1">
         <v>0.23</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="1">
         <v>0.52</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="1">
         <v>0.63200000000000001</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="R71" s="2">
+      <c r="R71" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="1">
         <v>0.84</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>0.16</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>0.40600000000000003</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>0.182</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="1">
         <v>0.55600000000000005</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="1">
         <v>0.63400000000000001</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="1">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0.182</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>0.432</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>1</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="1">
         <v>0.26</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="1">
         <v>0.64600000000000002</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="R73" s="2">
+      <c r="R73" s="1">
         <v>0.78800000000000003</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="1">
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0.22</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>0.72399999999999998</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>0.156</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <v>0.246</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P74" s="1">
         <v>0.70199999999999996</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q74" s="1">
         <v>0.75800000000000001</v>
       </c>
-      <c r="R74" s="2">
+      <c r="R74" s="1">
         <v>0.81</v>
       </c>
-      <c r="S74" s="2">
+      <c r="S74" s="1">
         <v>0.874</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>0.252</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>0.51</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>0.76</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>1</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>0.22</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <v>0.26800000000000002</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="1">
         <v>0.73199999999999998</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="R75" s="2">
+      <c r="R75" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="S75" s="2">
+      <c r="S75" s="1">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D90" s="3" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="3" t="s">
+      <c r="N90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3">
         <v>5</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>10</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>15</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>25</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>30</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>35</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>40</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="4">
+      <c r="K91" s="2"/>
+      <c r="L91" s="3">
         <v>5</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="3">
         <v>10</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="3">
         <v>15</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="3">
         <v>20</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <v>25</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <v>30</v>
       </c>
-      <c r="R91" s="4">
+      <c r="R91" s="3">
         <v>35</v>
       </c>
-      <c r="S91" s="4">
+      <c r="S91" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>0.17</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>0.374</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="1">
         <v>0.7</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="1">
         <v>0.85</v>
       </c>
-      <c r="K92" s="9" t="s">
+      <c r="K92" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="1">
         <v>0.188</v>
       </c>
-      <c r="O92" s="2">
+      <c r="O92" s="1">
         <v>0.38</v>
       </c>
-      <c r="P92" s="2">
+      <c r="P92" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="Q92" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="R92" s="2">
+      <c r="R92" s="1">
         <v>0.8</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S92" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>0.124</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>0.216</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93" s="1">
         <v>0.21</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="1">
         <v>0.5</v>
       </c>
-      <c r="P93" s="2">
+      <c r="P93" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q93" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R93" s="2">
+      <c r="R93" s="1">
         <v>0.76</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S93" s="1">
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>0.63600000000000001</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="1">
         <v>0.998</v>
       </c>
-      <c r="K94" s="9" t="s">
+      <c r="K94" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>0.35</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="1">
         <v>0.626</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="1">
         <v>0.89</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="1">
         <v>0.996</v>
       </c>
-      <c r="R94" s="2">
+      <c r="R94" s="1">
         <v>0.996</v>
       </c>
-      <c r="S94" s="2">
+      <c r="S94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="8"/>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H98" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32660,1962 +32776,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="10" width="10.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="2" customWidth="1"/>
-    <col min="12" max="1025" width="10.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>30</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>35</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>40</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>15</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>20</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>30</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>35</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.318</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.77</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.92800000000000005</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.30599999999999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.63400000000000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.21</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.998</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.998</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.33</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.88400000000000001</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.95</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.98</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.98</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.99</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.48</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.7</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.9</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.96</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.66</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.77</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.874</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.108</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.32</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.65</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.01</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.224</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.73199999999999998</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.79400000000000004</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>0.01</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>0.05</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.316</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.32800000000000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>0.46200000000000002</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>0.79</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.152</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.56399999999999995</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.76</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.378</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.624</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.75600000000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>15</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>25</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>30</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>35</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>40</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4">
+      <c r="K26" s="2"/>
+      <c r="L26" s="3">
         <v>5</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>10</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>15</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>20</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>25</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>30</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <v>35</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.34</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>0.93</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>0.32800000000000001</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.63600000000000001</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>0.73</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.214</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.998</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0.314</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.498</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>0.87</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.95</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>0.19</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>0.41</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>0.49</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>0.71</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>0.83</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>0.94</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>1</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.106</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.254</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.88400000000000001</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0.12</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>0.60599999999999998</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>0.71</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.112</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.126</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.214</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.33</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>0.46600000000000003</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.6</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.154</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0.35</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>0.78</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.154</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0.12</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.628</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>0.77400000000000002</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.83</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>0.01</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>15</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>25</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>30</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>35</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>40</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="4">
+      <c r="K50" s="2"/>
+      <c r="L50" s="3">
         <v>5</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <v>10</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>15</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <v>20</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <v>25</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <v>30</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <v>35</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.21</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.998</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.998</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>0.33</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="1">
         <v>0.88400000000000001</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>0.91</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>0.996</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>0.218</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0.49</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>0.69799999999999995</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>0.996</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>1</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>0.76400000000000001</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>0.96</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="1">
         <v>0.998</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>0.8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>0.33600000000000002</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>0.60799999999999998</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>0.80200000000000005</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <v>0.996</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>0.372</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <v>0.83</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <v>0.95</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="1">
         <v>0.99</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="1">
         <v>0.998</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E69" s="3" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3">
         <v>5</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>10</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>15</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>20</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>25</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>30</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <v>35</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="3">
         <v>40</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="4">
+      <c r="K70" s="2"/>
+      <c r="L70" s="3">
         <v>5</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="3">
         <v>10</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <v>15</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="3">
         <v>20</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="3">
         <v>25</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="3">
         <v>30</v>
       </c>
-      <c r="R70" s="4">
+      <c r="R70" s="3">
         <v>35</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0.998</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>1</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>0.35</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="1">
         <v>0.54</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="1">
         <v>0.91</v>
       </c>
-      <c r="R71" s="2">
+      <c r="R71" s="1">
         <v>0.93</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="1">
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>0.26400000000000001</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0.78</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0.998</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>0.18</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>0.36</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="1">
         <v>0.95599999999999996</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="1">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>0.998</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>1</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>0.214</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="1">
         <v>0.73</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="R73" s="2">
+      <c r="R73" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>0.998</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="1">
         <v>0.624</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="1">
         <v>0.76400000000000001</v>
       </c>
-      <c r="P74" s="2">
+      <c r="P74" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="Q74" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="R74" s="2">
+      <c r="R74" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="S74" s="2">
+      <c r="S74" s="1">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>0.61399999999999999</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>0.998</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>1</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="1">
         <v>0.314</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="1">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="1">
         <v>0.95</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="R75" s="2">
+      <c r="R75" s="1">
         <v>0.99</v>
       </c>
-      <c r="S75" s="2">
+      <c r="S75" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D90" s="3" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="3" t="s">
+      <c r="N90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3">
         <v>5</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>10</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>15</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>25</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>30</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>35</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>40</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="4">
+      <c r="K91" s="2"/>
+      <c r="L91" s="3">
         <v>5</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="3">
         <v>10</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="3">
         <v>15</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="3">
         <v>20</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <v>25</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <v>30</v>
       </c>
-      <c r="R91" s="4">
+      <c r="R91" s="3">
         <v>35</v>
       </c>
-      <c r="S91" s="4">
+      <c r="S91" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>0.17</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>0.374</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="1">
         <v>0.7</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="1">
         <v>0.85</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="1">
         <v>0.188</v>
       </c>
-      <c r="O92" s="2">
+      <c r="O92" s="1">
         <v>0.38</v>
       </c>
-      <c r="P92" s="2">
+      <c r="P92" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="Q92" s="1">
         <v>0.71199999999999997</v>
       </c>
-      <c r="R92" s="2">
+      <c r="R92" s="1">
         <v>0.8</v>
       </c>
-      <c r="S92" s="2">
+      <c r="S92" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>0.33</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>0.64200000000000002</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>0.81</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>0.88400000000000001</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="1">
         <v>0.91</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="1">
         <v>0.314</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93" s="1">
         <v>0.498</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="P93" s="2">
+      <c r="P93" s="1">
         <v>0.87</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q93" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="R93" s="2">
+      <c r="R93" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="S93" s="2">
+      <c r="S93" s="1">
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>0.21</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>0.94199999999999995</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>0.998</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="1">
         <v>0.998</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>0.214</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>0.52600000000000002</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="1">
         <v>0.998</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="1">
         <v>1</v>
       </c>
-      <c r="R94" s="2">
+      <c r="R94" s="1">
         <v>1</v>
       </c>
-      <c r="S94" s="2">
+      <c r="S94" s="1">
         <v>1</v>
       </c>
     </row>

--- a/results_BSD_10_10.xlsx
+++ b/results_BSD_10_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D293574-7E45-3E49-AAF5-15FCF6E895DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18261F7-76C4-4043-9D7D-B2AD4FD499E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD" sheetId="1" r:id="rId1"/>
@@ -18,29 +18,6 @@
     <sheet name="ES_dist" sheetId="4" r:id="rId3"/>
     <sheet name="ES_probs" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Comparison!$L$86</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Comparison!$L$87</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Comparison!$M$85:$T$85</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Comparison!$M$86:$T$86</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Comparison!$M$87:$T$87</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Comparison!$M$88:$T$88</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Comparison!$M$89:$T$89</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Comparison!$M$90:$T$90</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Comparison!$M$91:$T$91</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Comparison!$M$92:$T$92</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Comparison!$M$93:$T$93</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Comparison!$M$94:$T$94</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Comparison!$L$88</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Comparison!$M$95:$T$95</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Comparison!$L$89</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Comparison!$L$90</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Comparison!$L$91</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Comparison!$L$92</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Comparison!$L$93</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Comparison!$L$94</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Comparison!$L$95</definedName>
-  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -317,9 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,6 +317,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -42528,29 +42505,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -44483,8 +44460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B7034-E7FD-AE47-B7FC-480813697346}">
   <dimension ref="A1:AMV95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T116" sqref="T116"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44497,29 +44474,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="L1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="L1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -44547,7 +44524,7 @@
       <c r="I2" s="3">
         <v>40</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="3">
         <v>5</v>
       </c>
@@ -44601,7 +44578,7 @@
       <c r="I3" s="1">
         <v>0.98</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="1">
@@ -44657,7 +44634,7 @@
       <c r="I4" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="1">
@@ -44713,7 +44690,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1">
@@ -44770,8 +44747,8 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="1">
@@ -45844,8 +45821,8 @@
         <v>0.998</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="1">
@@ -46918,8 +46895,8 @@
         <v>1</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="1">
@@ -47963,16 +47940,16 @@
       <c r="AMU8" s="1"/>
       <c r="AMV8" s="1"/>
     </row>
-    <row r="9" spans="1:1036" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+    <row r="9" spans="1:1036" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -48999,16 +48976,16 @@
       <c r="AMU9"/>
       <c r="AMV9"/>
     </row>
-    <row r="10" spans="1:1036" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+    <row r="10" spans="1:1036" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -50039,29 +50016,29 @@
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="L29" s="11" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="L29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -50089,7 +50066,7 @@
       <c r="I30" s="3">
         <v>40</v>
       </c>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="3">
         <v>5</v>
       </c>
@@ -50143,7 +50120,7 @@
       <c r="I31" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M31" s="1">
@@ -50199,7 +50176,7 @@
       <c r="I32" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="1">
@@ -50255,7 +50232,7 @@
       <c r="I33" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="11" t="s">
         <v>43</v>
       </c>
       <c r="M33" s="1">
@@ -50311,7 +50288,7 @@
       <c r="I34" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M34" s="1">
@@ -50367,7 +50344,7 @@
       <c r="I35" s="1">
         <v>0.95</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="1">
@@ -50423,7 +50400,7 @@
       <c r="I36" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M36" s="1">
@@ -50479,7 +50456,7 @@
       <c r="I37" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M37" s="1">
@@ -50535,7 +50512,7 @@
       <c r="I38" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M38" s="1">
@@ -50591,7 +50568,7 @@
       <c r="I39" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="11" t="s">
         <v>49</v>
       </c>
       <c r="M39" s="1">
@@ -50647,7 +50624,7 @@
       <c r="I40" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="11" t="s">
         <v>50</v>
       </c>
       <c r="M40" s="1">
@@ -50685,27 +50662,27 @@
     </row>
     <row r="58" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="13" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
     </row>
     <row r="59" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -50733,7 +50710,7 @@
       <c r="I59" s="3">
         <v>40</v>
       </c>
-      <c r="L59" s="11"/>
+      <c r="L59" s="10"/>
       <c r="M59" s="3">
         <v>5</v>
       </c>
@@ -50787,7 +50764,7 @@
       <c r="I60" s="1">
         <v>0.99</v>
       </c>
-      <c r="L60" s="12" t="s">
+      <c r="L60" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M60" s="1">
@@ -50843,7 +50820,7 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="L61" s="12" t="s">
+      <c r="L61" s="11" t="s">
         <v>36</v>
       </c>
       <c r="M61" s="1">
@@ -50899,7 +50876,7 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="L62" s="12" t="s">
+      <c r="L62" s="11" t="s">
         <v>37</v>
       </c>
       <c r="M62" s="1">
@@ -50956,8 +50933,8 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="12" t="s">
+      <c r="K63" s="7"/>
+      <c r="L63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M63" s="1">
@@ -52030,8 +52007,8 @@
         <v>1</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="12" t="s">
+      <c r="K64" s="7"/>
+      <c r="L64" s="11" t="s">
         <v>39</v>
       </c>
       <c r="M64" s="1">
@@ -53104,8 +53081,8 @@
         <v>1</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="12" t="s">
+      <c r="K65" s="7"/>
+      <c r="L65" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M65" s="1">
@@ -54149,16 +54126,16 @@
       <c r="AMU65" s="1"/>
       <c r="AMV65" s="1"/>
     </row>
-    <row r="66" spans="1:1036" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+    <row r="66" spans="1:1036" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -55185,16 +55162,16 @@
       <c r="AMU66"/>
       <c r="AMV66"/>
     </row>
-    <row r="67" spans="1:1036" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+    <row r="67" spans="1:1036" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -56230,35 +56207,35 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="L84" s="11" t="s">
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="L84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M84" s="13" t="s">
+      <c r="M84" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="3">
         <v>5</v>
       </c>
@@ -56283,7 +56260,7 @@
       <c r="I85" s="3">
         <v>40</v>
       </c>
-      <c r="L85" s="11"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="3">
         <v>5</v>
       </c>
@@ -56310,7 +56287,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B86" s="1">
@@ -56337,7 +56314,7 @@
       <c r="I86" s="1">
         <v>0.996</v>
       </c>
-      <c r="L86" s="12" t="s">
+      <c r="L86" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M86" s="1">
@@ -56366,7 +56343,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B87" s="1">
@@ -56393,7 +56370,7 @@
       <c r="I87" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="L87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M87" s="1">
@@ -56422,7 +56399,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B88" s="1">
@@ -56449,7 +56426,7 @@
       <c r="I88" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="M88" s="1">
@@ -56478,7 +56455,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="1">
@@ -56505,7 +56482,7 @@
       <c r="I89" s="1">
         <v>1</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="L89" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M89" s="1">
@@ -56534,7 +56511,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B90" s="1">
@@ -56561,7 +56538,7 @@
       <c r="I90" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M90" s="1">
@@ -56590,7 +56567,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B91" s="1">
@@ -56617,7 +56594,7 @@
       <c r="I91" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="L91" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M91" s="1">
@@ -56646,7 +56623,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B92" s="1">
@@ -56673,7 +56650,7 @@
       <c r="I92" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="L92" s="12" t="s">
+      <c r="L92" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M92" s="1">
@@ -56702,7 +56679,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B93" s="1">
@@ -56729,7 +56706,7 @@
       <c r="I93" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="L93" s="12" t="s">
+      <c r="L93" s="11" t="s">
         <v>48</v>
       </c>
       <c r="M93" s="1">
@@ -56758,7 +56735,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B94" s="1">
@@ -56785,7 +56762,7 @@
       <c r="I94" s="1">
         <v>0.998</v>
       </c>
-      <c r="L94" s="12" t="s">
+      <c r="L94" s="11" t="s">
         <v>49</v>
       </c>
       <c r="M94" s="1">
@@ -56814,7 +56791,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B95" s="1">
@@ -56841,7 +56818,7 @@
       <c r="I95" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="L95" s="12" t="s">
+      <c r="L95" s="11" t="s">
         <v>50</v>
       </c>
       <c r="M95" s="1">
@@ -56905,29 +56882,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -58378,7 +58355,7 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L71" s="1">
@@ -58434,7 +58411,7 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="12" t="s">
         <v>20</v>
       </c>
       <c r="L72" s="1">
@@ -58490,7 +58467,7 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L73" s="1">
@@ -58546,7 +58523,7 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L74" s="1">
@@ -58602,7 +58579,7 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L75" s="1">
@@ -58694,7 +58671,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="1">
@@ -58750,7 +58727,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="1">
@@ -58806,7 +58783,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B94" s="1">
@@ -58895,29 +58872,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -58972,7 +58949,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -58999,7 +58976,7 @@
       <c r="I3" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="1">
@@ -59028,7 +59005,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -59055,7 +59032,7 @@
       <c r="I4" s="1">
         <v>0.998</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1">
@@ -59084,7 +59061,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -59111,7 +59088,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="1">
@@ -59140,7 +59117,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -59167,7 +59144,7 @@
       <c r="I6" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="1">
@@ -59196,7 +59173,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -59223,7 +59200,7 @@
       <c r="I7" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="1">
@@ -59252,7 +59229,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
@@ -59279,7 +59256,7 @@
       <c r="I8" s="1">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="1">
@@ -59308,7 +59285,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
@@ -59335,7 +59312,7 @@
       <c r="I9" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="1">
@@ -59364,7 +59341,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -59391,7 +59368,7 @@
       <c r="I10" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="1">
@@ -59480,7 +59457,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1">
@@ -59507,7 +59484,7 @@
       <c r="I27" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="1">
@@ -59536,7 +59513,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1">
@@ -59563,7 +59540,7 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L28" s="1">
@@ -59592,7 +59569,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1">
@@ -59619,7 +59596,7 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="1">
@@ -59648,7 +59625,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1">
@@ -59675,7 +59652,7 @@
       <c r="I30" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="1">
@@ -59704,7 +59681,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="1">
@@ -59731,7 +59708,7 @@
       <c r="I31" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="1">
@@ -59760,7 +59737,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="1">
@@ -59787,7 +59764,7 @@
       <c r="I32" s="1">
         <v>0.94399999999999995</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="1">
@@ -59816,7 +59793,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="1">
@@ -59843,7 +59820,7 @@
       <c r="I33" s="1">
         <v>0.998</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="1">
@@ -59872,7 +59849,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1">
@@ -59899,7 +59876,7 @@
       <c r="I34" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="1">
@@ -59988,7 +59965,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="1">
@@ -60015,7 +59992,7 @@
       <c r="I51" s="1">
         <v>0.998</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L51" s="1">
@@ -60044,7 +60021,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="1">
@@ -60071,7 +60048,7 @@
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="K52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L52" s="1">
@@ -60100,7 +60077,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="1">
@@ -60127,7 +60104,7 @@
       <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="K53" s="15" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="1">
@@ -60156,7 +60133,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1">
@@ -60183,7 +60160,7 @@
       <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="K54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="L54" s="1">
@@ -60212,7 +60189,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="1">
@@ -60239,7 +60216,7 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="15" t="s">
         <v>17</v>
       </c>
       <c r="L55" s="1">
@@ -60328,7 +60305,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="1">
@@ -60355,7 +60332,7 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="K71" s="17" t="s">
+      <c r="K71" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L71" s="1">
@@ -60384,7 +60361,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="1">
@@ -60411,7 +60388,7 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="K72" s="17" t="s">
+      <c r="K72" s="15" t="s">
         <v>20</v>
       </c>
       <c r="L72" s="1">
@@ -60440,7 +60417,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="1">
@@ -60467,7 +60444,7 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="17" t="s">
+      <c r="K73" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L73" s="1">
@@ -60496,7 +60473,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="1">
@@ -60523,7 +60500,7 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="17" t="s">
+      <c r="K74" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L74" s="1">
@@ -60552,7 +60529,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B75" s="1">
@@ -60579,7 +60556,7 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="K75" s="17" t="s">
+      <c r="K75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L75" s="1">
@@ -60668,7 +60645,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="1">
@@ -60695,7 +60672,7 @@
       <c r="I92" s="1">
         <v>0.85</v>
       </c>
-      <c r="K92" s="17" t="s">
+      <c r="K92" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L92" s="1">
@@ -60724,7 +60701,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="1">
@@ -60751,7 +60728,7 @@
       <c r="I93" s="1">
         <v>0.91</v>
       </c>
-      <c r="K93" s="17" t="s">
+      <c r="K93" s="15" t="s">
         <v>31</v>
       </c>
       <c r="L93" s="1">
@@ -60780,7 +60757,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B94" s="1">
@@ -60807,7 +60784,7 @@
       <c r="I94" s="1">
         <v>0.998</v>
       </c>
-      <c r="K94" s="17" t="s">
+      <c r="K94" s="15" t="s">
         <v>32</v>
       </c>
       <c r="L94" s="1">

--- a/results_BSD_10_10.xlsx
+++ b/results_BSD_10_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18261F7-76C4-4043-9D7D-B2AD4FD499E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07CDE6-919B-0047-A3D9-73F0575AA0CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="54">
   <si>
     <t>top1</t>
   </si>
@@ -185,12 +185,18 @@
   <si>
     <t xml:space="preserve"> Features without Turn Patterns</t>
   </si>
+  <si>
+    <t>tonbridge_v2</t>
+  </si>
+  <si>
+    <t>luton_v4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -225,6 +231,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF18A303"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -274,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +330,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,7 +1650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$92</c:f>
+              <c:f>BSD!$K$96</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1676,7 +1692,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$91:$S$91</c:f>
+              <c:f>BSD!$L$95:$S$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1709,7 +1725,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$92:$S$92</c:f>
+              <c:f>BSD!$L$96:$S$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1751,7 +1767,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$93</c:f>
+              <c:f>BSD!$K$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1793,7 +1809,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$91:$S$91</c:f>
+              <c:f>BSD!$L$95:$S$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1826,7 +1842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$93:$S$93</c:f>
+              <c:f>BSD!$L$97:$S$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1868,7 +1884,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$94</c:f>
+              <c:f>BSD!$K$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1910,7 +1926,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$91:$S$91</c:f>
+              <c:f>BSD!$L$95:$S$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1943,7 +1959,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$94:$S$94</c:f>
+              <c:f>BSD!$L$98:$S$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22460,7 +22476,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$27</c:f>
+              <c:f>BSD!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22504,7 +22520,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22537,7 +22553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$27:$I$27</c:f>
+              <c:f>BSD!$B$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22580,7 +22596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$28</c:f>
+              <c:f>BSD!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22624,7 +22640,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22657,7 +22673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$28:$I$28</c:f>
+              <c:f>BSD!$B$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22700,7 +22716,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$29</c:f>
+              <c:f>BSD!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22744,7 +22760,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22777,7 +22793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$29:$I$29</c:f>
+              <c:f>BSD!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22820,7 +22836,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$30</c:f>
+              <c:f>BSD!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22864,7 +22880,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22897,7 +22913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$30:$I$30</c:f>
+              <c:f>BSD!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -22940,7 +22956,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$31</c:f>
+              <c:f>BSD!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22984,7 +23000,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23017,7 +23033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$31:$I$31</c:f>
+              <c:f>BSD!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23060,7 +23076,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$32</c:f>
+              <c:f>BSD!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23104,7 +23120,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23137,7 +23153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$32:$I$32</c:f>
+              <c:f>BSD!$B$34:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23180,7 +23196,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$33</c:f>
+              <c:f>BSD!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23224,7 +23240,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23257,7 +23273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$33:$I$33</c:f>
+              <c:f>BSD!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23300,7 +23316,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$34</c:f>
+              <c:f>BSD!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23344,7 +23360,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$26:$I$26</c:f>
+              <c:f>BSD!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -23377,7 +23393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$34:$I$34</c:f>
+              <c:f>BSD!$B$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31476,7 +31492,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$27</c:f>
+              <c:f>BSD!$K$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -31520,7 +31536,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31553,7 +31569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$27:$S$27</c:f>
+              <c:f>BSD!$L$29:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31596,7 +31612,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$28</c:f>
+              <c:f>BSD!$K$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -31640,7 +31656,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31673,7 +31689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$28:$S$28</c:f>
+              <c:f>BSD!$L$30:$S$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31716,7 +31732,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$29</c:f>
+              <c:f>BSD!$K$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -31760,7 +31776,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31793,7 +31809,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$29:$S$29</c:f>
+              <c:f>BSD!$L$31:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31836,7 +31852,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$30</c:f>
+              <c:f>BSD!$K$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -31880,7 +31896,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31913,7 +31929,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$30:$S$30</c:f>
+              <c:f>BSD!$L$32:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -31956,7 +31972,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$31</c:f>
+              <c:f>BSD!$K$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32000,7 +32016,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32033,7 +32049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$31:$S$31</c:f>
+              <c:f>BSD!$L$33:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32076,7 +32092,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$32</c:f>
+              <c:f>BSD!$K$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32120,7 +32136,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32153,7 +32169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$32:$S$32</c:f>
+              <c:f>BSD!$L$34:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32196,7 +32212,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$33</c:f>
+              <c:f>BSD!$K$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32240,7 +32256,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32273,7 +32289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$33:$S$33</c:f>
+              <c:f>BSD!$L$35:$S$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32316,7 +32332,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$34</c:f>
+              <c:f>BSD!$K$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32360,7 +32376,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$26:$S$26</c:f>
+              <c:f>BSD!$L$28:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32393,7 +32409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$34:$S$34</c:f>
+              <c:f>BSD!$L$36:$S$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32643,7 +32659,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$51</c:f>
+              <c:f>BSD!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32687,7 +32703,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$50:$I$50</c:f>
+              <c:f>BSD!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32720,7 +32736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$51:$I$51</c:f>
+              <c:f>BSD!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32763,7 +32779,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$52</c:f>
+              <c:f>BSD!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32807,7 +32823,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$50:$I$50</c:f>
+              <c:f>BSD!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32840,7 +32856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$52:$I$52</c:f>
+              <c:f>BSD!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32883,7 +32899,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$53</c:f>
+              <c:f>BSD!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -32927,7 +32943,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$50:$I$50</c:f>
+              <c:f>BSD!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -32960,7 +32976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$53:$I$53</c:f>
+              <c:f>BSD!$B$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33003,7 +33019,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$54</c:f>
+              <c:f>BSD!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33047,7 +33063,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$50:$I$50</c:f>
+              <c:f>BSD!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33080,7 +33096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$54:$I$54</c:f>
+              <c:f>BSD!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33123,7 +33139,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$55</c:f>
+              <c:f>BSD!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33167,7 +33183,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$50:$I$50</c:f>
+              <c:f>BSD!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33200,7 +33216,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$55:$I$55</c:f>
+              <c:f>BSD!$B$59:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33450,7 +33466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$51</c:f>
+              <c:f>BSD!$K$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33494,7 +33510,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$50:$S$50</c:f>
+              <c:f>BSD!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33527,7 +33543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$51:$S$51</c:f>
+              <c:f>BSD!$L$55:$S$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33570,7 +33586,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$52</c:f>
+              <c:f>BSD!$K$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33614,7 +33630,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$50:$S$50</c:f>
+              <c:f>BSD!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33647,7 +33663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$52:$S$52</c:f>
+              <c:f>BSD!$L$56:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33690,7 +33706,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$53</c:f>
+              <c:f>BSD!$K$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33734,7 +33750,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$50:$S$50</c:f>
+              <c:f>BSD!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33767,7 +33783,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$53:$S$53</c:f>
+              <c:f>BSD!$L$57:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33810,7 +33826,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$54</c:f>
+              <c:f>BSD!$K$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33854,7 +33870,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$50:$S$50</c:f>
+              <c:f>BSD!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33887,7 +33903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$54:$S$54</c:f>
+              <c:f>BSD!$L$58:$S$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -33930,7 +33946,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$55</c:f>
+              <c:f>BSD!$K$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -33974,7 +33990,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$50:$S$50</c:f>
+              <c:f>BSD!$L$54:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34007,7 +34023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$55:$S$55</c:f>
+              <c:f>BSD!$L$59:$S$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34257,7 +34273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$71</c:f>
+              <c:f>BSD!$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34301,7 +34317,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$70:$I$70</c:f>
+              <c:f>BSD!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34334,7 +34350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$71:$I$71</c:f>
+              <c:f>BSD!$B$75:$I$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34377,7 +34393,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$72</c:f>
+              <c:f>BSD!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34421,7 +34437,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$70:$I$70</c:f>
+              <c:f>BSD!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34454,7 +34470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$72:$I$72</c:f>
+              <c:f>BSD!$B$76:$I$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34497,7 +34513,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$73</c:f>
+              <c:f>BSD!$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34541,7 +34557,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$70:$I$70</c:f>
+              <c:f>BSD!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34574,7 +34590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$73:$I$73</c:f>
+              <c:f>BSD!$B$77:$I$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34617,7 +34633,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$74</c:f>
+              <c:f>BSD!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34661,7 +34677,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$70:$I$70</c:f>
+              <c:f>BSD!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34694,7 +34710,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$74:$I$74</c:f>
+              <c:f>BSD!$B$78:$I$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34737,7 +34753,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$75</c:f>
+              <c:f>BSD!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -34781,7 +34797,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$70:$I$70</c:f>
+              <c:f>BSD!$B$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -34814,7 +34830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$75:$I$75</c:f>
+              <c:f>BSD!$B$79:$I$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35064,7 +35080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$71</c:f>
+              <c:f>BSD!$K$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35108,7 +35124,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$70:$S$70</c:f>
+              <c:f>BSD!$L$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35141,7 +35157,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$71:$S$71</c:f>
+              <c:f>BSD!$L$75:$S$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35184,7 +35200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$72</c:f>
+              <c:f>BSD!$K$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35228,7 +35244,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$70:$S$70</c:f>
+              <c:f>BSD!$L$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35261,7 +35277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$72:$S$72</c:f>
+              <c:f>BSD!$L$76:$S$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35304,7 +35320,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$73</c:f>
+              <c:f>BSD!$K$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35348,7 +35364,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$70:$S$70</c:f>
+              <c:f>BSD!$L$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35381,7 +35397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$73:$S$73</c:f>
+              <c:f>BSD!$L$77:$S$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35424,7 +35440,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$74</c:f>
+              <c:f>BSD!$K$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35468,7 +35484,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$70:$S$70</c:f>
+              <c:f>BSD!$L$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35501,7 +35517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$74:$S$74</c:f>
+              <c:f>BSD!$L$78:$S$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35544,7 +35560,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$K$75</c:f>
+              <c:f>BSD!$K$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35588,7 +35604,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$L$70:$S$70</c:f>
+              <c:f>BSD!$L$74:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35621,7 +35637,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$L$75:$S$75</c:f>
+              <c:f>BSD!$L$79:$S$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35872,7 +35888,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$92</c:f>
+              <c:f>BSD!$A$96</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -35914,7 +35930,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$91:$I$91</c:f>
+              <c:f>BSD!$B$95:$I$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35947,7 +35963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$92:$I$92</c:f>
+              <c:f>BSD!$B$96:$I$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -35989,7 +36005,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$93</c:f>
+              <c:f>BSD!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -36031,7 +36047,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$91:$I$91</c:f>
+              <c:f>BSD!$B$95:$I$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -36064,7 +36080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$93:$I$93</c:f>
+              <c:f>BSD!$B$97:$I$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -36106,7 +36122,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD!$A$94</c:f>
+              <c:f>BSD!$A$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -36148,7 +36164,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD!$B$91:$I$91</c:f>
+              <c:f>BSD!$B$95:$I$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -36181,7 +36197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD!$B$94:$I$94</c:f>
+              <c:f>BSD!$B$98:$I$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -40822,13 +40838,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40858,13 +40874,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>800280</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>825020</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40894,13 +40910,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1390680</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40930,13 +40946,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -40966,13 +40982,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1403280</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41002,13 +41018,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41038,13 +41054,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1403280</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41074,13 +41090,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41110,13 +41126,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -41146,13 +41162,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>824660</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -42487,10 +42503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK94"/>
+  <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:S34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42505,29 +42521,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -43029,282 +43045,230 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.432</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K11" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
-        <v>20</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3">
-        <v>30</v>
-      </c>
-      <c r="H26" s="3">
-        <v>35</v>
-      </c>
-      <c r="I26" s="3">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
-        <v>10</v>
-      </c>
-      <c r="N26" s="3">
-        <v>15</v>
-      </c>
-      <c r="O26" s="3">
-        <v>20</v>
-      </c>
-      <c r="P26" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>30</v>
-      </c>
-      <c r="R26" s="3">
-        <v>35</v>
-      </c>
-      <c r="S26" s="3">
-        <v>40</v>
-      </c>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.154</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.504</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.622</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.96799999999999997</v>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.248</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.876</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.98399999999999999</v>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3">
+        <v>35</v>
+      </c>
+      <c r="I28" s="3">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3">
+        <v>5</v>
+      </c>
+      <c r="M28" s="3">
+        <v>10</v>
+      </c>
+      <c r="N28" s="3">
+        <v>15</v>
+      </c>
+      <c r="O28" s="3">
+        <v>20</v>
+      </c>
+      <c r="P28" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3">
+        <v>35</v>
+      </c>
+      <c r="S28" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.112</v>
       </c>
       <c r="C29" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" s="1">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M29" s="1">
-        <v>0.41</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="N29" s="1">
         <v>0.49</v>
       </c>
       <c r="O29" s="1">
-        <v>0.71</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="P29" s="1">
-        <v>0.83</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.94</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>0.122</v>
+        <v>0.17</v>
       </c>
       <c r="C30" s="1">
-        <v>0.48199999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="D30" s="1">
-        <v>0.79</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E30" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F30" s="1">
-        <v>0.97799999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="G30" s="1">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="H30" s="1">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M30" s="1">
-        <v>0.30399999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="N30" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="O30" s="1">
-        <v>0.76800000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="P30" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.93600000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="R30" s="1">
         <v>0.98199999999999998</v>
@@ -43315,870 +43279,818 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>0.214</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D31" s="1">
-        <v>0.45400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E31" s="1">
-        <v>0.66400000000000003</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>0.82399999999999995</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0.93200000000000005</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.97199999999999998</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L31" s="1">
-        <v>1.2E-2</v>
+        <v>0.19</v>
       </c>
       <c r="M31" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.41</v>
       </c>
       <c r="N31" s="1">
-        <v>0.108</v>
+        <v>0.49</v>
       </c>
       <c r="O31" s="1">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="P31" s="1">
-        <v>0.34200000000000003</v>
+        <v>0.83</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.49</v>
+        <v>0.94</v>
       </c>
       <c r="R31" s="1">
-        <v>0.58799999999999997</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>0.65800000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>0.122</v>
       </c>
       <c r="C32" s="1">
-        <v>0.35799999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>0.63400000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="E32" s="1">
-        <v>0.86</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F32" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G32" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I32" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L32" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M32" s="1">
-        <v>0.154</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="N32" s="1">
-        <v>0.35</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="O32" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="P32" s="1">
-        <v>0.65200000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.78</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="R32" s="1">
-        <v>0.84599999999999997</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="S32" s="1">
-        <v>0.88</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>0.122</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>0.45800000000000002</v>
+        <v>0.214</v>
       </c>
       <c r="D33" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F33" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.99399999999999999</v>
-      </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L33" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M33" s="1">
-        <v>0.19600000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="N33" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="O33" s="1">
-        <v>0.63200000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="P33" s="1">
-        <v>0.81399999999999995</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="R33" s="1">
-        <v>0.96599999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="S33" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>0.126</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <v>0.624</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D36" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E36" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F36" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G36" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H36" s="1">
         <v>0.95</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I36" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L36" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M36" s="1">
         <v>0.214</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N36" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O36" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P36" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q36" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R36" s="1">
         <v>0.93</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S36" s="1">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.996</v>
+      </c>
+      <c r="K37" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3">
-        <v>20</v>
-      </c>
-      <c r="F50" s="3">
-        <v>25</v>
-      </c>
-      <c r="G50" s="3">
-        <v>30</v>
-      </c>
-      <c r="H50" s="3">
-        <v>35</v>
-      </c>
-      <c r="I50" s="3">
-        <v>40</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="3">
-        <v>5</v>
-      </c>
-      <c r="M50" s="3">
-        <v>10</v>
-      </c>
-      <c r="N50" s="3">
-        <v>15</v>
-      </c>
-      <c r="O50" s="3">
-        <v>20</v>
-      </c>
-      <c r="P50" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>30</v>
-      </c>
-      <c r="R50" s="3">
-        <v>35</v>
-      </c>
-      <c r="S50" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="M52" s="1">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.158</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E38" s="16">
         <v>0.41199999999999998</v>
       </c>
-      <c r="N52" s="1">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1">
-        <v>1</v>
-      </c>
-      <c r="S52" s="1">
-        <v>1</v>
-      </c>
+      <c r="F38" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K38" s="4"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.502</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1">
-        <v>1</v>
-      </c>
-      <c r="S53" s="1">
-        <v>1</v>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="P54" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="1">
-        <v>1</v>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3">
+        <v>25</v>
+      </c>
+      <c r="G54" s="3">
+        <v>30</v>
+      </c>
+      <c r="H54" s="3">
+        <v>35</v>
+      </c>
+      <c r="I54" s="3">
+        <v>40</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="3">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
+        <v>10</v>
+      </c>
+      <c r="N54" s="3">
+        <v>15</v>
+      </c>
+      <c r="O54" s="3">
+        <v>20</v>
+      </c>
+      <c r="P54" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>30</v>
+      </c>
+      <c r="R54" s="3">
+        <v>35</v>
+      </c>
+      <c r="S54" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B59" s="1">
         <v>0.47599999999999998</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C59" s="1">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D59" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F59" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G59" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H59" s="1">
         <v>1</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I59" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L59" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M59" s="1">
         <v>0.6</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N59" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O59" s="1">
         <v>0.95199999999999996</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P59" s="1">
         <v>1</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q59" s="1">
         <v>1</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R59" s="1">
         <v>1</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S59" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3">
-        <v>10</v>
-      </c>
-      <c r="D70" s="3">
-        <v>15</v>
-      </c>
-      <c r="E70" s="3">
-        <v>20</v>
-      </c>
-      <c r="F70" s="3">
-        <v>25</v>
-      </c>
-      <c r="G70" s="3">
-        <v>30</v>
-      </c>
-      <c r="H70" s="3">
-        <v>35</v>
-      </c>
-      <c r="I70" s="3">
-        <v>40</v>
-      </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="3">
-        <v>5</v>
-      </c>
-      <c r="M70" s="3">
-        <v>10</v>
-      </c>
-      <c r="N70" s="3">
-        <v>15</v>
-      </c>
-      <c r="O70" s="3">
-        <v>20</v>
-      </c>
-      <c r="P70" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>30</v>
-      </c>
-      <c r="R70" s="3">
-        <v>35</v>
-      </c>
-      <c r="S70" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="N71" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0.996</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.878</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="R73" s="1">
-        <v>1</v>
-      </c>
-      <c r="S73" s="1">
-        <v>1</v>
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="P74" s="1">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="R74" s="1">
-        <v>1</v>
-      </c>
-      <c r="S74" s="1">
-        <v>1</v>
+      <c r="A74" s="2"/>
+      <c r="B74" s="3">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>10</v>
+      </c>
+      <c r="D74" s="3">
+        <v>15</v>
+      </c>
+      <c r="E74" s="3">
+        <v>20</v>
+      </c>
+      <c r="F74" s="3">
+        <v>25</v>
+      </c>
+      <c r="G74" s="3">
+        <v>30</v>
+      </c>
+      <c r="H74" s="3">
+        <v>35</v>
+      </c>
+      <c r="I74" s="3">
+        <v>40</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="3">
+        <v>5</v>
+      </c>
+      <c r="M74" s="3">
+        <v>10</v>
+      </c>
+      <c r="N74" s="3">
+        <v>15</v>
+      </c>
+      <c r="O74" s="3">
+        <v>20</v>
+      </c>
+      <c r="P74" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>30</v>
+      </c>
+      <c r="R74" s="3">
+        <v>35</v>
+      </c>
+      <c r="S74" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1">
-        <v>0.32600000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>0.67200000000000004</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D75" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E75" s="1">
-        <v>0.998</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G75" s="1">
         <v>0.996</v>
@@ -44190,258 +44102,482 @@
         <v>1</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.878</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1</v>
+      </c>
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="R78" s="1">
+        <v>1</v>
+      </c>
+      <c r="S78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="1">
+      <c r="B79" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="1">
         <v>0.218</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M79" s="1">
         <v>0.45800000000000002</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N79" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O79" s="1">
         <v>0.82199999999999995</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P79" s="1">
         <v>0.92400000000000004</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q79" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R79" s="1">
         <v>1</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S79" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3">
-        <v>5</v>
-      </c>
-      <c r="C91" s="3">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3">
-        <v>15</v>
-      </c>
-      <c r="E91" s="3">
-        <v>20</v>
-      </c>
-      <c r="F91" s="3">
-        <v>25</v>
-      </c>
-      <c r="G91" s="3">
-        <v>30</v>
-      </c>
-      <c r="H91" s="3">
-        <v>35</v>
-      </c>
-      <c r="I91" s="3">
-        <v>40</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="3">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>10</v>
-      </c>
-      <c r="N91" s="3">
-        <v>15</v>
-      </c>
-      <c r="O91" s="3">
-        <v>20</v>
-      </c>
-      <c r="P91" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>30</v>
-      </c>
-      <c r="R91" s="3">
-        <v>35</v>
-      </c>
-      <c r="S91" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.374</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L92" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M92" s="1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="N92" s="1">
-        <v>0.188</v>
-      </c>
-      <c r="O92" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="P92" s="1">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="R92" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S92" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L93" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0.248</v>
-      </c>
-      <c r="N93" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0.876</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="R93" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="S93" s="1">
-        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="D94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3">
+        <v>20</v>
+      </c>
+      <c r="F95" s="3">
+        <v>25</v>
+      </c>
+      <c r="G95" s="3">
+        <v>30</v>
+      </c>
+      <c r="H95" s="3">
+        <v>35</v>
+      </c>
+      <c r="I95" s="3">
+        <v>40</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="3">
+        <v>5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>10</v>
+      </c>
+      <c r="N95" s="3">
+        <v>15</v>
+      </c>
+      <c r="O95" s="3">
+        <v>20</v>
+      </c>
+      <c r="P95" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>30</v>
+      </c>
+      <c r="R95" s="3">
+        <v>35</v>
+      </c>
+      <c r="S95" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.374</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M96" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B98" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C98" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D98" s="1">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E98" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F98" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G98" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H98" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I98" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L98" s="1">
         <v>0.17</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M98" s="1">
         <v>0.52</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N98" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O98" s="1">
         <v>0.96799999999999997</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P98" s="1">
         <v>0.996</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q98" s="1">
         <v>0.996</v>
       </c>
-      <c r="R94" s="1">
+      <c r="R98" s="1">
         <v>1</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -44460,8 +44596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B7034-E7FD-AE47-B7FC-480813697346}">
   <dimension ref="A1:AMV95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44474,29 +44610,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="L1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -50016,29 +50152,29 @@
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="L29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -50662,27 +50798,27 @@
     </row>
     <row r="58" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="17" t="s">
+      <c r="M58" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
     </row>
     <row r="59" spans="1:1036" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -56210,29 +56346,29 @@
       <c r="A84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
       <c r="L84" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M84" s="17" t="s">
+      <c r="M84" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
@@ -56882,29 +57018,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -58856,8 +58992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK94"/>
   <sheetViews>
-    <sheetView topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:S34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58872,29 +59008,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
